--- a/CASUAL/LA ONT/CARLITO, ELENA.xlsx
+++ b/CASUAL/LA ONT/CARLITO, ELENA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>UT(1-7-3)</t>
+  </si>
+  <si>
+    <t>UT(1-0-20)</t>
   </si>
 </sst>
 </file>
@@ -1282,9 +1285,9 @@
   <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A50" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1448,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.54</v>
+        <v>27.497999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2462,11 +2465,15 @@
       <c r="A59" s="41">
         <v>44712</v>
       </c>
-      <c r="B59" s="20"/>
+      <c r="B59" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C59" s="13">
         <v>1.25</v>
       </c>
-      <c r="D59" s="40"/>
+      <c r="D59" s="40">
+        <v>1.042</v>
+      </c>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
       <c r="G59" s="13">
@@ -3878,15 +3885,13 @@
       <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="11">
-        <v>7</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G3" s="46">
         <f>SUM(D3,E4,F4)</f>
-        <v>1.881</v>
+        <v>1.042</v>
       </c>
       <c r="J3" s="35"/>
       <c r="K3" s="36">
@@ -3901,11 +3906,11 @@
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <f>IF(F3=0,0,IF(ISBLANK(F3),"",VLOOKUP(F3,C7:D66,2)))</f>
-        <v>6.0000000000000001E-3</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
@@ -3942,7 +3947,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>72.289999999999992</v>
+        <v>71.24799999999999</v>
       </c>
       <c r="C7" s="38">
         <v>1</v>

--- a/CASUAL/LA ONT/CARLITO, ELENA.xlsx
+++ b/CASUAL/LA ONT/CARLITO, ELENA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -258,6 +258,15 @@
   </si>
   <si>
     <t>UT(1-0-20)</t>
+  </si>
+  <si>
+    <t>UT(0-4-7)</t>
+  </si>
+  <si>
+    <t>UT(0-0-20)</t>
+  </si>
+  <si>
+    <t>UT(1-1-0)</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1296,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1457,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.497999999999998</v>
+        <v>25.815999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2563,11 +2572,15 @@
       <c r="A63" s="41">
         <v>44834</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C63" s="13">
         <v>1.25</v>
       </c>
-      <c r="D63" s="40"/>
+      <c r="D63" s="40">
+        <v>1.125</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
       <c r="G63" s="13">
@@ -2603,11 +2616,15 @@
       <c r="A65" s="41">
         <v>44895</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
-      <c r="D65" s="40"/>
+      <c r="D65" s="40">
+        <v>4.2000000000000003E-2</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
@@ -2623,11 +2640,15 @@
       <c r="A66" s="41">
         <v>44926</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="40"/>
+      <c r="D66" s="40">
+        <v>0.51500000000000001</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -3885,13 +3906,13 @@
       <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11">
-        <v>20</v>
-      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="46">
         <f>SUM(D3,E4,F4)</f>
-        <v>1.042</v>
+        <v>1.125</v>
       </c>
       <c r="J3" s="35"/>
       <c r="K3" s="36">
@@ -3906,11 +3927,11 @@
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F4" s="1">
         <f>IF(F3=0,0,IF(ISBLANK(F3),"",VLOOKUP(F3,C7:D66,2)))</f>
-        <v>4.2000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
@@ -3947,7 +3968,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>71.24799999999999</v>
+        <v>69.566000000000003</v>
       </c>
       <c r="C7" s="38">
         <v>1</v>
